--- a/Hospital_vaccine.xlsx
+++ b/Hospital_vaccine.xlsx
@@ -15,12 +15,16 @@
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
     <sheet name="Hospital Pincodes" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hospital Pincodes'!$A$1:$B$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$A$1:$E$331</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="342">
   <si>
     <t>date</t>
   </si>
@@ -916,9 +920,6 @@
   </si>
   <si>
     <t>APOLLO CRADLE</t>
-  </si>
-  <si>
-    <t>APOLLO CRADLE HOSPITAL (South)</t>
   </si>
   <si>
     <t>Apollo Hospital</t>
@@ -1448,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C294" workbookViewId="0">
-      <selection sqref="A1:E331"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1506,7 +1507,7 @@
         <v>560003</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E3" t="str">
         <f>VLOOKUP(C3,'Hospital Pincodes'!A:B,2,)</f>
@@ -1542,7 +1543,7 @@
         <v>560017</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="E5" t="str">
         <f>VLOOKUP(C5,'Hospital Pincodes'!A:B,2,)</f>
@@ -1560,7 +1561,7 @@
         <v>560017</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="E6" t="str">
         <f>VLOOKUP(C6,'Hospital Pincodes'!A:B,2,)</f>
@@ -1578,7 +1579,7 @@
         <v>560066</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="E7" t="str">
         <f>VLOOKUP(C7,'Hospital Pincodes'!A:B,2,)</f>
@@ -1596,7 +1597,7 @@
         <v>560066</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="E8" t="str">
         <f>VLOOKUP(C8,'Hospital Pincodes'!A:B,2,)</f>
@@ -1650,7 +1651,7 @@
         <v>560066</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP(C11,'Hospital Pincodes'!A:B,2,)</f>
@@ -1668,7 +1669,7 @@
         <v>560078</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP(C12,'Hospital Pincodes'!A:B,2,)</f>
@@ -1722,7 +1723,7 @@
         <v>560003</v>
       </c>
       <c r="D15" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP(C15,'Hospital Pincodes'!A:B,2,)</f>
@@ -1776,7 +1777,7 @@
         <v>560030</v>
       </c>
       <c r="D18" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP(C18,'Hospital Pincodes'!A:B,2,)</f>
@@ -1794,7 +1795,7 @@
         <v>560030</v>
       </c>
       <c r="D19" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="E19" t="str">
         <f>VLOOKUP(C19,'Hospital Pincodes'!A:B,2,)</f>
@@ -1848,7 +1849,7 @@
         <v>560078</v>
       </c>
       <c r="D22" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="E22" t="str">
         <f>VLOOKUP(C22,'Hospital Pincodes'!A:B,2,)</f>
@@ -1866,7 +1867,7 @@
         <v>560078</v>
       </c>
       <c r="D23" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="E23" t="str">
         <f>VLOOKUP(C23,'Hospital Pincodes'!A:B,2,)</f>
@@ -1956,7 +1957,7 @@
         <v>560011</v>
       </c>
       <c r="D28" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="E28" t="str">
         <f>VLOOKUP(C28,'Hospital Pincodes'!A:B,2,)</f>
@@ -1974,7 +1975,7 @@
         <v>560011</v>
       </c>
       <c r="D29" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="E29" t="str">
         <f>VLOOKUP(C29,'Hospital Pincodes'!A:B,2,)</f>
@@ -2028,7 +2029,7 @@
         <v>560066</v>
       </c>
       <c r="D32" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="E32" t="str">
         <f>VLOOKUP(C32,'Hospital Pincodes'!A:B,2,)</f>
@@ -2046,7 +2047,7 @@
         <v>560066</v>
       </c>
       <c r="D33" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="E33" t="str">
         <f>VLOOKUP(C33,'Hospital Pincodes'!A:B,2,)</f>
@@ -2064,7 +2065,7 @@
         <v>560017</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="E34" t="str">
         <f>VLOOKUP(C34,'Hospital Pincodes'!A:B,2,)</f>
@@ -2082,7 +2083,7 @@
         <v>560017</v>
       </c>
       <c r="D35" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="E35" t="str">
         <f>VLOOKUP(C35,'Hospital Pincodes'!A:B,2,)</f>
@@ -2100,7 +2101,7 @@
         <v>560003</v>
       </c>
       <c r="D36" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E36" t="str">
         <f>VLOOKUP(C36,'Hospital Pincodes'!A:B,2,)</f>
@@ -2118,7 +2119,7 @@
         <v>560011</v>
       </c>
       <c r="D37" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="E37" t="str">
         <f>VLOOKUP(C37,'Hospital Pincodes'!A:B,2,)</f>
@@ -2136,7 +2137,7 @@
         <v>560017</v>
       </c>
       <c r="D38" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="E38" t="str">
         <f>VLOOKUP(C38,'Hospital Pincodes'!A:B,2,)</f>
@@ -2154,7 +2155,7 @@
         <v>560078</v>
       </c>
       <c r="D39" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="E39" t="str">
         <f>VLOOKUP(C39,'Hospital Pincodes'!A:B,2,)</f>
@@ -2172,7 +2173,7 @@
         <v>560011</v>
       </c>
       <c r="D40" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="E40" t="str">
         <f>VLOOKUP(C40,'Hospital Pincodes'!A:B,2,)</f>
@@ -2190,7 +2191,7 @@
         <v>560011</v>
       </c>
       <c r="D41" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="E41" t="str">
         <f>VLOOKUP(C41,'Hospital Pincodes'!A:B,2,)</f>
@@ -2208,7 +2209,7 @@
         <v>560017</v>
       </c>
       <c r="D42" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="E42" t="str">
         <f>VLOOKUP(C42,'Hospital Pincodes'!A:B,2,)</f>
@@ -2226,7 +2227,7 @@
         <v>560017</v>
       </c>
       <c r="D43" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="E43" t="str">
         <f>VLOOKUP(C43,'Hospital Pincodes'!A:B,2,)</f>
@@ -2280,7 +2281,7 @@
         <v>560066</v>
       </c>
       <c r="D46" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="E46" t="str">
         <f>VLOOKUP(C46,'Hospital Pincodes'!A:B,2,)</f>
@@ -2298,7 +2299,7 @@
         <v>560003</v>
       </c>
       <c r="D47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E47" t="str">
         <f>VLOOKUP(C47,'Hospital Pincodes'!A:B,2,)</f>
@@ -2316,7 +2317,7 @@
         <v>560011</v>
       </c>
       <c r="D48" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="E48" t="str">
         <f>VLOOKUP(C48,'Hospital Pincodes'!A:B,2,)</f>
@@ -2334,7 +2335,7 @@
         <v>560066</v>
       </c>
       <c r="D49" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="E49" t="str">
         <f>VLOOKUP(C49,'Hospital Pincodes'!A:B,2,)</f>
@@ -2352,7 +2353,7 @@
         <v>560030</v>
       </c>
       <c r="D50" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="E50" t="str">
         <f>VLOOKUP(C50,'Hospital Pincodes'!A:B,2,)</f>
@@ -2370,7 +2371,7 @@
         <v>560020</v>
       </c>
       <c r="D51" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E51" t="str">
         <f>VLOOKUP(C51,'Hospital Pincodes'!A:B,2,)</f>
@@ -2388,7 +2389,7 @@
         <v>560020</v>
       </c>
       <c r="D52" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E52" t="str">
         <f>VLOOKUP(C52,'Hospital Pincodes'!A:B,2,)</f>
@@ -2406,7 +2407,7 @@
         <v>560020</v>
       </c>
       <c r="D53" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E53" t="str">
         <f>VLOOKUP(C53,'Hospital Pincodes'!A:B,2,)</f>
@@ -2424,7 +2425,7 @@
         <v>560020</v>
       </c>
       <c r="D54" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E54" t="str">
         <f>VLOOKUP(C54,'Hospital Pincodes'!A:B,2,)</f>
@@ -2442,7 +2443,7 @@
         <v>560020</v>
       </c>
       <c r="D55" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E55" t="str">
         <f>VLOOKUP(C55,'Hospital Pincodes'!A:B,2,)</f>
@@ -2460,7 +2461,7 @@
         <v>560037</v>
       </c>
       <c r="D56" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E56" t="str">
         <f>VLOOKUP(C56,'Hospital Pincodes'!A:B,2,)</f>
@@ -2478,7 +2479,7 @@
         <v>560037</v>
       </c>
       <c r="D57" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E57" t="str">
         <f>VLOOKUP(C57,'Hospital Pincodes'!A:B,2,)</f>
@@ -2496,7 +2497,7 @@
         <v>560037</v>
       </c>
       <c r="D58" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E58" t="str">
         <f>VLOOKUP(C58,'Hospital Pincodes'!A:B,2,)</f>
@@ -2514,7 +2515,7 @@
         <v>560011</v>
       </c>
       <c r="D59" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E59" t="str">
         <f>VLOOKUP(C59,'Hospital Pincodes'!A:B,2,)</f>
@@ -2532,7 +2533,7 @@
         <v>560011</v>
       </c>
       <c r="D60" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E60" t="str">
         <f>VLOOKUP(C60,'Hospital Pincodes'!A:B,2,)</f>
@@ -2550,7 +2551,7 @@
         <v>560011</v>
       </c>
       <c r="D61" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E61" t="str">
         <f>VLOOKUP(C61,'Hospital Pincodes'!A:B,2,)</f>
@@ -2568,7 +2569,7 @@
         <v>560011</v>
       </c>
       <c r="D62" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E62" t="str">
         <f>VLOOKUP(C62,'Hospital Pincodes'!A:B,2,)</f>
@@ -2586,7 +2587,7 @@
         <v>560011</v>
       </c>
       <c r="D63" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E63" t="str">
         <f>VLOOKUP(C63,'Hospital Pincodes'!A:B,2,)</f>
@@ -2604,7 +2605,7 @@
         <v>560011</v>
       </c>
       <c r="D64" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E64" t="str">
         <f>VLOOKUP(C64,'Hospital Pincodes'!A:B,2,)</f>
@@ -2622,7 +2623,7 @@
         <v>560011</v>
       </c>
       <c r="D65" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E65" t="str">
         <f>VLOOKUP(C65,'Hospital Pincodes'!A:B,2,)</f>
@@ -2640,7 +2641,7 @@
         <v>560011</v>
       </c>
       <c r="D66" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E66" t="str">
         <f>VLOOKUP(C66,'Hospital Pincodes'!A:B,2,)</f>
@@ -2658,7 +2659,7 @@
         <v>560011</v>
       </c>
       <c r="D67" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E67" t="str">
         <f>VLOOKUP(C67,'Hospital Pincodes'!A:B,2,)</f>
@@ -2676,7 +2677,7 @@
         <v>560011</v>
       </c>
       <c r="D68" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E68" t="str">
         <f>VLOOKUP(C68,'Hospital Pincodes'!A:B,2,)</f>
@@ -2694,7 +2695,7 @@
         <v>560011</v>
       </c>
       <c r="D69" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E69" t="str">
         <f>VLOOKUP(C69,'Hospital Pincodes'!A:B,2,)</f>
@@ -2712,7 +2713,7 @@
         <v>560011</v>
       </c>
       <c r="D70" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E70" t="str">
         <f>VLOOKUP(C70,'Hospital Pincodes'!A:B,2,)</f>
@@ -2730,7 +2731,7 @@
         <v>560011</v>
       </c>
       <c r="D71" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E71" t="str">
         <f>VLOOKUP(C71,'Hospital Pincodes'!A:B,2,)</f>
@@ -2748,7 +2749,7 @@
         <v>560017</v>
       </c>
       <c r="D72" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E72" t="str">
         <f>VLOOKUP(C72,'Hospital Pincodes'!A:B,2,)</f>
@@ -2766,7 +2767,7 @@
         <v>560017</v>
       </c>
       <c r="D73" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E73" t="str">
         <f>VLOOKUP(C73,'Hospital Pincodes'!A:B,2,)</f>
@@ -2784,7 +2785,7 @@
         <v>560017</v>
       </c>
       <c r="D74" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E74" t="str">
         <f>VLOOKUP(C74,'Hospital Pincodes'!A:B,2,)</f>
@@ -2802,7 +2803,7 @@
         <v>560017</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E75" t="str">
         <f>VLOOKUP(C75,'Hospital Pincodes'!A:B,2,)</f>
@@ -2820,7 +2821,7 @@
         <v>560017</v>
       </c>
       <c r="D76" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E76" t="str">
         <f>VLOOKUP(C76,'Hospital Pincodes'!A:B,2,)</f>
@@ -2838,7 +2839,7 @@
         <v>560017</v>
       </c>
       <c r="D77" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E77" t="str">
         <f>VLOOKUP(C77,'Hospital Pincodes'!A:B,2,)</f>
@@ -2856,7 +2857,7 @@
         <v>560017</v>
       </c>
       <c r="D78" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E78" t="str">
         <f>VLOOKUP(C78,'Hospital Pincodes'!A:B,2,)</f>
@@ -2874,7 +2875,7 @@
         <v>560017</v>
       </c>
       <c r="D79" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E79" t="str">
         <f>VLOOKUP(C79,'Hospital Pincodes'!A:B,2,)</f>
@@ -2892,7 +2893,7 @@
         <v>561204</v>
       </c>
       <c r="D80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E80" t="str">
         <f>VLOOKUP(C80,'Hospital Pincodes'!A:B,2,)</f>
@@ -2910,7 +2911,7 @@
         <v>561204</v>
       </c>
       <c r="D81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E81" t="str">
         <f>VLOOKUP(C81,'Hospital Pincodes'!A:B,2,)</f>
@@ -2928,7 +2929,7 @@
         <v>561203</v>
       </c>
       <c r="D82" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E82" t="str">
         <f>VLOOKUP(C82,'Hospital Pincodes'!A:B,2,)</f>
@@ -2946,7 +2947,7 @@
         <v>561203</v>
       </c>
       <c r="D83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E83" t="str">
         <f>VLOOKUP(C83,'Hospital Pincodes'!A:B,2,)</f>
@@ -2964,7 +2965,7 @@
         <v>562110</v>
       </c>
       <c r="D84" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E84" t="str">
         <f>VLOOKUP(C84,'Hospital Pincodes'!A:B,2,)</f>
@@ -2982,7 +2983,7 @@
         <v>562110</v>
       </c>
       <c r="D85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E85" t="str">
         <f>VLOOKUP(C85,'Hospital Pincodes'!A:B,2,)</f>
@@ -3000,7 +3001,7 @@
         <v>561203</v>
       </c>
       <c r="D86" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E86" t="str">
         <f>VLOOKUP(C86,'Hospital Pincodes'!A:B,2,)</f>
@@ -3018,7 +3019,7 @@
         <v>560068</v>
       </c>
       <c r="D87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E87" t="str">
         <f>VLOOKUP(C87,'Hospital Pincodes'!A:B,2,)</f>
@@ -3036,7 +3037,7 @@
         <v>560068</v>
       </c>
       <c r="D88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E88" t="str">
         <f>VLOOKUP(C88,'Hospital Pincodes'!A:B,2,)</f>
@@ -3054,7 +3055,7 @@
         <v>560068</v>
       </c>
       <c r="D89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E89" t="str">
         <f>VLOOKUP(C89,'Hospital Pincodes'!A:B,2,)</f>
@@ -3072,7 +3073,7 @@
         <v>560068</v>
       </c>
       <c r="D90" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E90" t="str">
         <f>VLOOKUP(C90,'Hospital Pincodes'!A:B,2,)</f>
@@ -3090,7 +3091,7 @@
         <v>560068</v>
       </c>
       <c r="D91" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E91" t="str">
         <f>VLOOKUP(C91,'Hospital Pincodes'!A:B,2,)</f>
@@ -3108,7 +3109,7 @@
         <v>560068</v>
       </c>
       <c r="D92" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E92" t="str">
         <f>VLOOKUP(C92,'Hospital Pincodes'!A:B,2,)</f>
@@ -3126,7 +3127,7 @@
         <v>560068</v>
       </c>
       <c r="D93" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E93" t="str">
         <f>VLOOKUP(C93,'Hospital Pincodes'!A:B,2,)</f>
@@ -3144,7 +3145,7 @@
         <v>560068</v>
       </c>
       <c r="D94" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E94" t="str">
         <f>VLOOKUP(C94,'Hospital Pincodes'!A:B,2,)</f>
@@ -3162,7 +3163,7 @@
         <v>560068</v>
       </c>
       <c r="D95" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E95" t="str">
         <f>VLOOKUP(C95,'Hospital Pincodes'!A:B,2,)</f>
@@ -3180,7 +3181,7 @@
         <v>560068</v>
       </c>
       <c r="D96" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E96" t="str">
         <f>VLOOKUP(C96,'Hospital Pincodes'!A:B,2,)</f>
@@ -3198,7 +3199,7 @@
         <v>560068</v>
       </c>
       <c r="D97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E97" t="str">
         <f>VLOOKUP(C97,'Hospital Pincodes'!A:B,2,)</f>
@@ -3216,7 +3217,7 @@
         <v>560068</v>
       </c>
       <c r="D98" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E98" t="str">
         <f>VLOOKUP(C98,'Hospital Pincodes'!A:B,2,)</f>
@@ -3234,7 +3235,7 @@
         <v>560068</v>
       </c>
       <c r="D99" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E99" t="str">
         <f>VLOOKUP(C99,'Hospital Pincodes'!A:B,2,)</f>
@@ -3252,7 +3253,7 @@
         <v>560068</v>
       </c>
       <c r="D100" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E100" t="str">
         <f>VLOOKUP(C100,'Hospital Pincodes'!A:B,2,)</f>
@@ -3270,7 +3271,7 @@
         <v>560068</v>
       </c>
       <c r="D101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E101" t="str">
         <f>VLOOKUP(C101,'Hospital Pincodes'!A:B,2,)</f>
@@ -3288,7 +3289,7 @@
         <v>560068</v>
       </c>
       <c r="D102" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E102" t="str">
         <f>VLOOKUP(C102,'Hospital Pincodes'!A:B,2,)</f>
@@ -3306,7 +3307,7 @@
         <v>560068</v>
       </c>
       <c r="D103" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E103" t="str">
         <f>VLOOKUP(C103,'Hospital Pincodes'!A:B,2,)</f>
@@ -3324,7 +3325,7 @@
         <v>560010</v>
       </c>
       <c r="D104" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E104" t="str">
         <f>VLOOKUP(C104,'Hospital Pincodes'!A:B,2,)</f>
@@ -3342,7 +3343,7 @@
         <v>560010</v>
       </c>
       <c r="D105" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E105" t="str">
         <f>VLOOKUP(C105,'Hospital Pincodes'!A:B,2,)</f>
@@ -3360,7 +3361,7 @@
         <v>560010</v>
       </c>
       <c r="D106" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E106" t="str">
         <f>VLOOKUP(C106,'Hospital Pincodes'!A:B,2,)</f>
@@ -3378,7 +3379,7 @@
         <v>560010</v>
       </c>
       <c r="D107" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E107" t="str">
         <f>VLOOKUP(C107,'Hospital Pincodes'!A:B,2,)</f>
@@ -3396,7 +3397,7 @@
         <v>560010</v>
       </c>
       <c r="D108" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E108" t="str">
         <f>VLOOKUP(C108,'Hospital Pincodes'!A:B,2,)</f>
@@ -3414,7 +3415,7 @@
         <v>560010</v>
       </c>
       <c r="D109" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E109" t="str">
         <f>VLOOKUP(C109,'Hospital Pincodes'!A:B,2,)</f>
@@ -3432,7 +3433,7 @@
         <v>560010</v>
       </c>
       <c r="D110" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E110" t="str">
         <f>VLOOKUP(C110,'Hospital Pincodes'!A:B,2,)</f>
@@ -3450,7 +3451,7 @@
         <v>560010</v>
       </c>
       <c r="D111" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E111" t="str">
         <f>VLOOKUP(C111,'Hospital Pincodes'!A:B,2,)</f>
@@ -3468,7 +3469,7 @@
         <v>560010</v>
       </c>
       <c r="D112" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E112" t="str">
         <f>VLOOKUP(C112,'Hospital Pincodes'!A:B,2,)</f>
@@ -3486,7 +3487,7 @@
         <v>560010</v>
       </c>
       <c r="D113" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E113" t="str">
         <f>VLOOKUP(C113,'Hospital Pincodes'!A:B,2,)</f>
@@ -3504,7 +3505,7 @@
         <v>560010</v>
       </c>
       <c r="D114" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E114" t="str">
         <f>VLOOKUP(C114,'Hospital Pincodes'!A:B,2,)</f>
@@ -3522,7 +3523,7 @@
         <v>560010</v>
       </c>
       <c r="D115" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E115" t="str">
         <f>VLOOKUP(C115,'Hospital Pincodes'!A:B,2,)</f>
@@ -3540,7 +3541,7 @@
         <v>560010</v>
       </c>
       <c r="D116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E116" t="str">
         <f>VLOOKUP(C116,'Hospital Pincodes'!A:B,2,)</f>
@@ -3558,7 +3559,7 @@
         <v>560010</v>
       </c>
       <c r="D117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E117" t="str">
         <f>VLOOKUP(C117,'Hospital Pincodes'!A:B,2,)</f>
@@ -3576,7 +3577,7 @@
         <v>560010</v>
       </c>
       <c r="D118" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E118" t="str">
         <f>VLOOKUP(C118,'Hospital Pincodes'!A:B,2,)</f>
@@ -3594,7 +3595,7 @@
         <v>560010</v>
       </c>
       <c r="D119" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E119" t="str">
         <f>VLOOKUP(C119,'Hospital Pincodes'!A:B,2,)</f>
@@ -3612,7 +3613,7 @@
         <v>560010</v>
       </c>
       <c r="D120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E120" t="str">
         <f>VLOOKUP(C120,'Hospital Pincodes'!A:B,2,)</f>
@@ -3630,7 +3631,7 @@
         <v>560010</v>
       </c>
       <c r="D121" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E121" t="str">
         <f>VLOOKUP(C121,'Hospital Pincodes'!A:B,2,)</f>
@@ -3648,7 +3649,7 @@
         <v>560010</v>
       </c>
       <c r="D122" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E122" t="str">
         <f>VLOOKUP(C122,'Hospital Pincodes'!A:B,2,)</f>
@@ -3666,7 +3667,7 @@
         <v>560010</v>
       </c>
       <c r="D123" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E123" t="str">
         <f>VLOOKUP(C123,'Hospital Pincodes'!A:B,2,)</f>
@@ -3684,7 +3685,7 @@
         <v>560010</v>
       </c>
       <c r="D124" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E124" t="str">
         <f>VLOOKUP(C124,'Hospital Pincodes'!A:B,2,)</f>
@@ -3702,7 +3703,7 @@
         <v>560010</v>
       </c>
       <c r="D125" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E125" t="str">
         <f>VLOOKUP(C125,'Hospital Pincodes'!A:B,2,)</f>
@@ -3720,7 +3721,7 @@
         <v>560010</v>
       </c>
       <c r="D126" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E126" t="str">
         <f>VLOOKUP(C126,'Hospital Pincodes'!A:B,2,)</f>
@@ -3738,7 +3739,7 @@
         <v>560060</v>
       </c>
       <c r="D127" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E127" t="str">
         <f>VLOOKUP(C127,'Hospital Pincodes'!A:B,2,)</f>
@@ -3756,7 +3757,7 @@
         <v>560060</v>
       </c>
       <c r="D128" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E128" t="str">
         <f>VLOOKUP(C128,'Hospital Pincodes'!A:B,2,)</f>
@@ -3774,7 +3775,7 @@
         <v>560060</v>
       </c>
       <c r="D129" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E129" t="str">
         <f>VLOOKUP(C129,'Hospital Pincodes'!A:B,2,)</f>
@@ -3792,7 +3793,7 @@
         <v>560060</v>
       </c>
       <c r="D130" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E130" t="str">
         <f>VLOOKUP(C130,'Hospital Pincodes'!A:B,2,)</f>
@@ -3810,7 +3811,7 @@
         <v>560060</v>
       </c>
       <c r="D131" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E131" t="str">
         <f>VLOOKUP(C131,'Hospital Pincodes'!A:B,2,)</f>
@@ -3828,7 +3829,7 @@
         <v>560060</v>
       </c>
       <c r="D132" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E132" t="str">
         <f>VLOOKUP(C132,'Hospital Pincodes'!A:B,2,)</f>
@@ -3846,7 +3847,7 @@
         <v>560060</v>
       </c>
       <c r="D133" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E133" t="str">
         <f>VLOOKUP(C133,'Hospital Pincodes'!A:B,2,)</f>
@@ -3864,7 +3865,7 @@
         <v>560060</v>
       </c>
       <c r="D134" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E134" t="str">
         <f>VLOOKUP(C134,'Hospital Pincodes'!A:B,2,)</f>
@@ -3882,7 +3883,7 @@
         <v>560011</v>
       </c>
       <c r="D135" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E135" t="str">
         <f>VLOOKUP(C135,'Hospital Pincodes'!A:B,2,)</f>
@@ -3900,7 +3901,7 @@
         <v>560011</v>
       </c>
       <c r="D136" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E136" t="str">
         <f>VLOOKUP(C136,'Hospital Pincodes'!A:B,2,)</f>
@@ -3918,7 +3919,7 @@
         <v>560011</v>
       </c>
       <c r="D137" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E137" t="str">
         <f>VLOOKUP(C137,'Hospital Pincodes'!A:B,2,)</f>
@@ -3936,7 +3937,7 @@
         <v>560017</v>
       </c>
       <c r="D138" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E138" t="str">
         <f>VLOOKUP(C138,'Hospital Pincodes'!A:B,2,)</f>
@@ -3954,7 +3955,7 @@
         <v>560023</v>
       </c>
       <c r="D139" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E139" t="str">
         <f>VLOOKUP(C139,'Hospital Pincodes'!A:B,2,)</f>
@@ -3972,7 +3973,7 @@
         <v>560023</v>
       </c>
       <c r="D140" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E140" t="str">
         <f>VLOOKUP(C140,'Hospital Pincodes'!A:B,2,)</f>
@@ -3990,7 +3991,7 @@
         <v>560001</v>
       </c>
       <c r="D141" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E141" t="str">
         <f>VLOOKUP(C141,'Hospital Pincodes'!A:B,2,)</f>
@@ -4008,7 +4009,7 @@
         <v>560001</v>
       </c>
       <c r="D142" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E142" t="str">
         <f>VLOOKUP(C142,'Hospital Pincodes'!A:B,2,)</f>
@@ -4026,7 +4027,7 @@
         <v>560060</v>
       </c>
       <c r="D143" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E143" t="str">
         <f>VLOOKUP(C143,'Hospital Pincodes'!A:B,2,)</f>
@@ -4044,7 +4045,7 @@
         <v>560060</v>
       </c>
       <c r="D144" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E144" t="str">
         <f>VLOOKUP(C144,'Hospital Pincodes'!A:B,2,)</f>
@@ -4062,7 +4063,7 @@
         <v>560060</v>
       </c>
       <c r="D145" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E145" t="str">
         <f>VLOOKUP(C145,'Hospital Pincodes'!A:B,2,)</f>
@@ -4080,7 +4081,7 @@
         <v>560060</v>
       </c>
       <c r="D146" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E146" t="str">
         <f>VLOOKUP(C146,'Hospital Pincodes'!A:B,2,)</f>
@@ -4098,7 +4099,7 @@
         <v>560060</v>
       </c>
       <c r="D147" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E147" t="str">
         <f>VLOOKUP(C147,'Hospital Pincodes'!A:B,2,)</f>
@@ -4116,7 +4117,7 @@
         <v>560020</v>
       </c>
       <c r="D148" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E148" t="str">
         <f>VLOOKUP(C148,'Hospital Pincodes'!A:B,2,)</f>
@@ -4134,7 +4135,7 @@
         <v>560022</v>
       </c>
       <c r="D149" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E149" t="str">
         <f>VLOOKUP(C149,'Hospital Pincodes'!A:B,2,)</f>
@@ -4152,7 +4153,7 @@
         <v>560078</v>
       </c>
       <c r="D150" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E150" t="str">
         <f>VLOOKUP(C150,'Hospital Pincodes'!A:B,2,)</f>
@@ -4170,7 +4171,7 @@
         <v>560078</v>
       </c>
       <c r="D151" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E151" t="str">
         <f>VLOOKUP(C151,'Hospital Pincodes'!A:B,2,)</f>
@@ -4188,7 +4189,7 @@
         <v>560078</v>
       </c>
       <c r="D152" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E152" t="str">
         <f>VLOOKUP(C152,'Hospital Pincodes'!A:B,2,)</f>
@@ -4206,7 +4207,7 @@
         <v>560078</v>
       </c>
       <c r="D153" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E153" t="str">
         <f>VLOOKUP(C153,'Hospital Pincodes'!A:B,2,)</f>
@@ -4224,7 +4225,7 @@
         <v>560078</v>
       </c>
       <c r="D154" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E154" t="str">
         <f>VLOOKUP(C154,'Hospital Pincodes'!A:B,2,)</f>
@@ -4242,7 +4243,7 @@
         <v>560002</v>
       </c>
       <c r="D155" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="E155" t="str">
         <f>VLOOKUP(C155,'Hospital Pincodes'!A:B,2,)</f>
@@ -4260,7 +4261,7 @@
         <v>560018</v>
       </c>
       <c r="D156" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E156" t="str">
         <f>VLOOKUP(C156,'Hospital Pincodes'!A:B,2,)</f>
@@ -4278,7 +4279,7 @@
         <v>560003</v>
       </c>
       <c r="D157" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E157" t="str">
         <f>VLOOKUP(C157,'Hospital Pincodes'!A:B,2,)</f>
@@ -4296,7 +4297,7 @@
         <v>560010</v>
       </c>
       <c r="D158" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E158" t="str">
         <f>VLOOKUP(C158,'Hospital Pincodes'!A:B,2,)</f>
@@ -4314,7 +4315,7 @@
         <v>560003</v>
       </c>
       <c r="D159" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E159" t="str">
         <f>VLOOKUP(C159,'Hospital Pincodes'!A:B,2,)</f>
@@ -4332,7 +4333,7 @@
         <v>560003</v>
       </c>
       <c r="D160" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E160" t="str">
         <f>VLOOKUP(C160,'Hospital Pincodes'!A:B,2,)</f>
@@ -4350,7 +4351,7 @@
         <v>562114</v>
       </c>
       <c r="D161" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E161" t="str">
         <f>VLOOKUP(C161,'Hospital Pincodes'!A:B,2,)</f>
@@ -4368,7 +4369,7 @@
         <v>560023</v>
       </c>
       <c r="D162" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E162" t="str">
         <f>VLOOKUP(C162,'Hospital Pincodes'!A:B,2,)</f>
@@ -4386,7 +4387,7 @@
         <v>562157</v>
       </c>
       <c r="D163" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E163" t="str">
         <f>VLOOKUP(C163,'Hospital Pincodes'!A:B,2,)</f>
@@ -4404,7 +4405,7 @@
         <v>562106</v>
       </c>
       <c r="D164" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E164" t="str">
         <f>VLOOKUP(C164,'Hospital Pincodes'!A:B,2,)</f>
@@ -4422,7 +4423,7 @@
         <v>560036</v>
       </c>
       <c r="D165" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E165" t="str">
         <f>VLOOKUP(C165,'Hospital Pincodes'!A:B,2,)</f>
@@ -4440,7 +4441,7 @@
         <v>560029</v>
       </c>
       <c r="D166" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E166" t="str">
         <f>VLOOKUP(C166,'Hospital Pincodes'!A:B,2,)</f>
@@ -4458,7 +4459,7 @@
         <v>562110</v>
       </c>
       <c r="D167" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E167" t="str">
         <f>VLOOKUP(C167,'Hospital Pincodes'!A:B,2,)</f>
@@ -4476,7 +4477,7 @@
         <v>562110</v>
       </c>
       <c r="D168" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E168" t="str">
         <f>VLOOKUP(C168,'Hospital Pincodes'!A:B,2,)</f>
@@ -4494,7 +4495,7 @@
         <v>562110</v>
       </c>
       <c r="D169" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E169" t="str">
         <f>VLOOKUP(C169,'Hospital Pincodes'!A:B,2,)</f>
@@ -4512,7 +4513,7 @@
         <v>562111</v>
       </c>
       <c r="D170" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E170" t="str">
         <f>VLOOKUP(C170,'Hospital Pincodes'!A:B,2,)</f>
@@ -4530,7 +4531,7 @@
         <v>560041</v>
       </c>
       <c r="D171" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E171" t="str">
         <f>VLOOKUP(C171,'Hospital Pincodes'!A:B,2,)</f>
@@ -4548,7 +4549,7 @@
         <v>560041</v>
       </c>
       <c r="D172" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E172" t="str">
         <f>VLOOKUP(C172,'Hospital Pincodes'!A:B,2,)</f>
@@ -4566,7 +4567,7 @@
         <v>560001</v>
       </c>
       <c r="D173" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E173" t="str">
         <f>VLOOKUP(C173,'Hospital Pincodes'!A:B,2,)</f>
@@ -4584,7 +4585,7 @@
         <v>560003</v>
       </c>
       <c r="D174" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E174" t="str">
         <f>VLOOKUP(C174,'Hospital Pincodes'!A:B,2,)</f>
@@ -4602,7 +4603,7 @@
         <v>560008</v>
       </c>
       <c r="D175" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E175" t="str">
         <f>VLOOKUP(C175,'Hospital Pincodes'!A:B,2,)</f>
@@ -4620,7 +4621,7 @@
         <v>560003</v>
       </c>
       <c r="D176" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E176" t="str">
         <f>VLOOKUP(C176,'Hospital Pincodes'!A:B,2,)</f>
@@ -4638,7 +4639,7 @@
         <v>560002</v>
       </c>
       <c r="D177" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E177" t="str">
         <f>VLOOKUP(C177,'Hospital Pincodes'!A:B,2,)</f>
@@ -4656,7 +4657,7 @@
         <v>560011</v>
       </c>
       <c r="D178" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E178" t="str">
         <f>VLOOKUP(C178,'Hospital Pincodes'!A:B,2,)</f>
@@ -4674,7 +4675,7 @@
         <v>561203</v>
       </c>
       <c r="D179" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E179" t="str">
         <f>VLOOKUP(C179,'Hospital Pincodes'!A:B,2,)</f>
@@ -4692,7 +4693,7 @@
         <v>561203</v>
       </c>
       <c r="D180" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E180" t="str">
         <f>VLOOKUP(C180,'Hospital Pincodes'!A:B,2,)</f>
@@ -4710,7 +4711,7 @@
         <v>560010</v>
       </c>
       <c r="D181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E181" t="str">
         <f>VLOOKUP(C181,'Hospital Pincodes'!A:B,2,)</f>
@@ -4728,7 +4729,7 @@
         <v>560008</v>
       </c>
       <c r="D182" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E182" t="str">
         <f>VLOOKUP(C182,'Hospital Pincodes'!A:B,2,)</f>
@@ -4746,7 +4747,7 @@
         <v>562123</v>
       </c>
       <c r="D183" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E183" t="str">
         <f>VLOOKUP(C183,'Hospital Pincodes'!A:B,2,)</f>
@@ -4764,7 +4765,7 @@
         <v>562123</v>
       </c>
       <c r="D184" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E184" t="str">
         <f>VLOOKUP(C184,'Hospital Pincodes'!A:B,2,)</f>
@@ -4782,7 +4783,7 @@
         <v>560078</v>
       </c>
       <c r="D185" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E185" t="str">
         <f>VLOOKUP(C185,'Hospital Pincodes'!A:B,2,)</f>
@@ -4800,7 +4801,7 @@
         <v>560060</v>
       </c>
       <c r="D186" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E186" t="str">
         <f>VLOOKUP(C186,'Hospital Pincodes'!A:B,2,)</f>
@@ -4818,7 +4819,7 @@
         <v>560007</v>
       </c>
       <c r="D187" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E187" t="str">
         <f>VLOOKUP(C187,'Hospital Pincodes'!A:B,2,)</f>
@@ -4836,7 +4837,7 @@
         <v>560066</v>
       </c>
       <c r="D188" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E188" t="str">
         <f>VLOOKUP(C188,'Hospital Pincodes'!A:B,2,)</f>
@@ -4854,7 +4855,7 @@
         <v>560029</v>
       </c>
       <c r="D189" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E189" t="str">
         <f>VLOOKUP(C189,'Hospital Pincodes'!A:B,2,)</f>
@@ -4872,7 +4873,7 @@
         <v>560029</v>
       </c>
       <c r="D190" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E190" t="str">
         <f>VLOOKUP(C190,'Hospital Pincodes'!A:B,2,)</f>
@@ -4890,7 +4891,7 @@
         <v>560023</v>
       </c>
       <c r="D191" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E191" t="str">
         <f>VLOOKUP(C191,'Hospital Pincodes'!A:B,2,)</f>
@@ -4908,7 +4909,7 @@
         <v>562106</v>
       </c>
       <c r="D192" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E192" t="str">
         <f>VLOOKUP(C192,'Hospital Pincodes'!A:B,2,)</f>
@@ -4926,7 +4927,7 @@
         <v>560036</v>
       </c>
       <c r="D193" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E193" t="str">
         <f>VLOOKUP(C193,'Hospital Pincodes'!A:B,2,)</f>
@@ -4944,7 +4945,7 @@
         <v>562157</v>
       </c>
       <c r="D194" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E194" t="str">
         <f>VLOOKUP(C194,'Hospital Pincodes'!A:B,2,)</f>
@@ -4962,7 +4963,7 @@
         <v>560008</v>
       </c>
       <c r="D195" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E195" t="str">
         <f>VLOOKUP(C195,'Hospital Pincodes'!A:B,2,)</f>
@@ -4980,7 +4981,7 @@
         <v>562114</v>
       </c>
       <c r="D196" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E196" t="str">
         <f>VLOOKUP(C196,'Hospital Pincodes'!A:B,2,)</f>
@@ -4998,7 +4999,7 @@
         <v>562114</v>
       </c>
       <c r="D197" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E197" t="str">
         <f>VLOOKUP(C197,'Hospital Pincodes'!A:B,2,)</f>
@@ -5016,7 +5017,7 @@
         <v>562114</v>
       </c>
       <c r="D198" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E198" t="str">
         <f>VLOOKUP(C198,'Hospital Pincodes'!A:B,2,)</f>
@@ -5034,7 +5035,7 @@
         <v>562123</v>
       </c>
       <c r="D199" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E199" t="str">
         <f>VLOOKUP(C199,'Hospital Pincodes'!A:B,2,)</f>
@@ -5052,7 +5053,7 @@
         <v>562123</v>
       </c>
       <c r="D200" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E200" t="str">
         <f>VLOOKUP(C200,'Hospital Pincodes'!A:B,2,)</f>
@@ -5070,7 +5071,7 @@
         <v>562123</v>
       </c>
       <c r="D201" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E201" t="str">
         <f>VLOOKUP(C201,'Hospital Pincodes'!A:B,2,)</f>
@@ -5088,7 +5089,7 @@
         <v>562123</v>
       </c>
       <c r="D202" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E202" t="str">
         <f>VLOOKUP(C202,'Hospital Pincodes'!A:B,2,)</f>
@@ -5106,7 +5107,7 @@
         <v>560029</v>
       </c>
       <c r="D203" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E203" t="str">
         <f>VLOOKUP(C203,'Hospital Pincodes'!A:B,2,)</f>
@@ -5124,7 +5125,7 @@
         <v>560029</v>
       </c>
       <c r="D204" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E204" t="str">
         <f>VLOOKUP(C204,'Hospital Pincodes'!A:B,2,)</f>
@@ -5142,7 +5143,7 @@
         <v>560029</v>
       </c>
       <c r="D205" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E205" t="str">
         <f>VLOOKUP(C205,'Hospital Pincodes'!A:B,2,)</f>
@@ -5160,7 +5161,7 @@
         <v>560029</v>
       </c>
       <c r="D206" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E206" t="str">
         <f>VLOOKUP(C206,'Hospital Pincodes'!A:B,2,)</f>
@@ -5178,7 +5179,7 @@
         <v>562123</v>
       </c>
       <c r="D207" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E207" t="str">
         <f>VLOOKUP(C207,'Hospital Pincodes'!A:B,2,)</f>
@@ -5196,7 +5197,7 @@
         <v>560023</v>
       </c>
       <c r="D208" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E208" t="str">
         <f>VLOOKUP(C208,'Hospital Pincodes'!A:B,2,)</f>
@@ -5214,7 +5215,7 @@
         <v>560023</v>
       </c>
       <c r="D209" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E209" t="str">
         <f>VLOOKUP(C209,'Hospital Pincodes'!A:B,2,)</f>
@@ -5232,7 +5233,7 @@
         <v>560023</v>
       </c>
       <c r="D210" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E210" t="str">
         <f>VLOOKUP(C210,'Hospital Pincodes'!A:B,2,)</f>
@@ -5250,7 +5251,7 @@
         <v>560023</v>
       </c>
       <c r="D211" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E211" t="str">
         <f>VLOOKUP(C211,'Hospital Pincodes'!A:B,2,)</f>
@@ -5268,7 +5269,7 @@
         <v>562123</v>
       </c>
       <c r="D212" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E212" t="str">
         <f>VLOOKUP(C212,'Hospital Pincodes'!A:B,2,)</f>
@@ -5286,7 +5287,7 @@
         <v>562106</v>
       </c>
       <c r="D213" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E213" t="str">
         <f>VLOOKUP(C213,'Hospital Pincodes'!A:B,2,)</f>
@@ -5304,7 +5305,7 @@
         <v>562106</v>
       </c>
       <c r="D214" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E214" t="str">
         <f>VLOOKUP(C214,'Hospital Pincodes'!A:B,2,)</f>
@@ -5322,7 +5323,7 @@
         <v>562106</v>
       </c>
       <c r="D215" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E215" t="str">
         <f>VLOOKUP(C215,'Hospital Pincodes'!A:B,2,)</f>
@@ -5340,7 +5341,7 @@
         <v>562106</v>
       </c>
       <c r="D216" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E216" t="str">
         <f>VLOOKUP(C216,'Hospital Pincodes'!A:B,2,)</f>
@@ -5358,7 +5359,7 @@
         <v>560036</v>
       </c>
       <c r="D217" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E217" t="str">
         <f>VLOOKUP(C217,'Hospital Pincodes'!A:B,2,)</f>
@@ -5376,7 +5377,7 @@
         <v>560036</v>
       </c>
       <c r="D218" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E218" t="str">
         <f>VLOOKUP(C218,'Hospital Pincodes'!A:B,2,)</f>
@@ -5394,7 +5395,7 @@
         <v>560041</v>
       </c>
       <c r="D219" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E219" t="str">
         <f>VLOOKUP(C219,'Hospital Pincodes'!A:B,2,)</f>
@@ -5412,7 +5413,7 @@
         <v>560036</v>
       </c>
       <c r="D220" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E220" t="str">
         <f>VLOOKUP(C220,'Hospital Pincodes'!A:B,2,)</f>
@@ -5430,7 +5431,7 @@
         <v>560036</v>
       </c>
       <c r="D221" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E221" t="str">
         <f>VLOOKUP(C221,'Hospital Pincodes'!A:B,2,)</f>
@@ -5448,7 +5449,7 @@
         <v>562157</v>
       </c>
       <c r="D222" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E222" t="str">
         <f>VLOOKUP(C222,'Hospital Pincodes'!A:B,2,)</f>
@@ -5466,7 +5467,7 @@
         <v>562157</v>
       </c>
       <c r="D223" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E223" t="str">
         <f>VLOOKUP(C223,'Hospital Pincodes'!A:B,2,)</f>
@@ -5484,7 +5485,7 @@
         <v>562157</v>
       </c>
       <c r="D224" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E224" t="str">
         <f>VLOOKUP(C224,'Hospital Pincodes'!A:B,2,)</f>
@@ -5502,7 +5503,7 @@
         <v>562157</v>
       </c>
       <c r="D225" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E225" t="str">
         <f>VLOOKUP(C225,'Hospital Pincodes'!A:B,2,)</f>
@@ -5520,7 +5521,7 @@
         <v>562106</v>
       </c>
       <c r="D226" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E226" t="str">
         <f>VLOOKUP(C226,'Hospital Pincodes'!A:B,2,)</f>
@@ -5538,7 +5539,7 @@
         <v>560020</v>
       </c>
       <c r="D227" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E227" t="str">
         <f>VLOOKUP(C227,'Hospital Pincodes'!A:B,2,)</f>
@@ -5556,7 +5557,7 @@
         <v>560017</v>
       </c>
       <c r="D228" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E228" t="str">
         <f>VLOOKUP(C228,'Hospital Pincodes'!A:B,2,)</f>
@@ -5574,7 +5575,7 @@
         <v>560017</v>
       </c>
       <c r="D229" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E229" t="str">
         <f>VLOOKUP(C229,'Hospital Pincodes'!A:B,2,)</f>
@@ -5592,7 +5593,7 @@
         <v>562110</v>
       </c>
       <c r="D230" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E230" t="str">
         <f>VLOOKUP(C230,'Hospital Pincodes'!A:B,2,)</f>
@@ -5610,7 +5611,7 @@
         <v>560002</v>
       </c>
       <c r="D231" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E231" t="str">
         <f>VLOOKUP(C231,'Hospital Pincodes'!A:B,2,)</f>
@@ -5628,7 +5629,7 @@
         <v>560002</v>
       </c>
       <c r="D232" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E232" t="str">
         <f>VLOOKUP(C232,'Hospital Pincodes'!A:B,2,)</f>
@@ -5646,7 +5647,7 @@
         <v>560002</v>
       </c>
       <c r="D233" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E233" t="str">
         <f>VLOOKUP(C233,'Hospital Pincodes'!A:B,2,)</f>
@@ -5664,7 +5665,7 @@
         <v>560002</v>
       </c>
       <c r="D234" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E234" t="str">
         <f>VLOOKUP(C234,'Hospital Pincodes'!A:B,2,)</f>
@@ -5682,7 +5683,7 @@
         <v>560002</v>
       </c>
       <c r="D235" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E235" t="str">
         <f>VLOOKUP(C235,'Hospital Pincodes'!A:B,2,)</f>
@@ -5700,7 +5701,7 @@
         <v>560002</v>
       </c>
       <c r="D236" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E236" t="str">
         <f>VLOOKUP(C236,'Hospital Pincodes'!A:B,2,)</f>
@@ -5718,7 +5719,7 @@
         <v>560002</v>
       </c>
       <c r="D237" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E237" t="str">
         <f>VLOOKUP(C237,'Hospital Pincodes'!A:B,2,)</f>
@@ -5736,7 +5737,7 @@
         <v>560003</v>
       </c>
       <c r="D238" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E238" t="str">
         <f>VLOOKUP(C238,'Hospital Pincodes'!A:B,2,)</f>
@@ -5754,7 +5755,7 @@
         <v>560003</v>
       </c>
       <c r="D239" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E239" t="str">
         <f>VLOOKUP(C239,'Hospital Pincodes'!A:B,2,)</f>
@@ -5772,7 +5773,7 @@
         <v>560003</v>
       </c>
       <c r="D240" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E240" t="str">
         <f>VLOOKUP(C240,'Hospital Pincodes'!A:B,2,)</f>
@@ -5790,7 +5791,7 @@
         <v>560003</v>
       </c>
       <c r="D241" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E241" t="str">
         <f>VLOOKUP(C241,'Hospital Pincodes'!A:B,2,)</f>
@@ -5808,7 +5809,7 @@
         <v>560003</v>
       </c>
       <c r="D242" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E242" t="str">
         <f>VLOOKUP(C242,'Hospital Pincodes'!A:B,2,)</f>
@@ -5826,7 +5827,7 @@
         <v>560003</v>
       </c>
       <c r="D243" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E243" t="str">
         <f>VLOOKUP(C243,'Hospital Pincodes'!A:B,2,)</f>
@@ -5844,7 +5845,7 @@
         <v>560003</v>
       </c>
       <c r="D244" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E244" t="str">
         <f>VLOOKUP(C244,'Hospital Pincodes'!A:B,2,)</f>
@@ -5862,7 +5863,7 @@
         <v>560002</v>
       </c>
       <c r="D245" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E245" t="str">
         <f>VLOOKUP(C245,'Hospital Pincodes'!A:B,2,)</f>
@@ -5880,7 +5881,7 @@
         <v>560002</v>
       </c>
       <c r="D246" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E246" t="str">
         <f>VLOOKUP(C246,'Hospital Pincodes'!A:B,2,)</f>
@@ -5898,7 +5899,7 @@
         <v>560002</v>
       </c>
       <c r="D247" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E247" t="str">
         <f>VLOOKUP(C247,'Hospital Pincodes'!A:B,2,)</f>
@@ -5916,7 +5917,7 @@
         <v>560002</v>
       </c>
       <c r="D248" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E248" t="str">
         <f>VLOOKUP(C248,'Hospital Pincodes'!A:B,2,)</f>
@@ -5934,7 +5935,7 @@
         <v>560002</v>
       </c>
       <c r="D249" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E249" t="str">
         <f>VLOOKUP(C249,'Hospital Pincodes'!A:B,2,)</f>
@@ -5952,7 +5953,7 @@
         <v>560002</v>
       </c>
       <c r="D250" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E250" t="str">
         <f>VLOOKUP(C250,'Hospital Pincodes'!A:B,2,)</f>
@@ -5970,7 +5971,7 @@
         <v>560036</v>
       </c>
       <c r="D251" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E251" t="str">
         <f>VLOOKUP(C251,'Hospital Pincodes'!A:B,2,)</f>
@@ -5988,7 +5989,7 @@
         <v>560001</v>
       </c>
       <c r="D252" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E252" t="str">
         <f>VLOOKUP(C252,'Hospital Pincodes'!A:B,2,)</f>
@@ -6006,7 +6007,7 @@
         <v>560003</v>
       </c>
       <c r="D253" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E253" t="str">
         <f>VLOOKUP(C253,'Hospital Pincodes'!A:B,2,)</f>
@@ -6024,7 +6025,7 @@
         <v>560001</v>
       </c>
       <c r="D254" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E254" t="str">
         <f>VLOOKUP(C254,'Hospital Pincodes'!A:B,2,)</f>
@@ -6042,7 +6043,7 @@
         <v>560003</v>
       </c>
       <c r="D255" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E255" t="str">
         <f>VLOOKUP(C255,'Hospital Pincodes'!A:B,2,)</f>
@@ -6060,7 +6061,7 @@
         <v>560001</v>
       </c>
       <c r="D256" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E256" t="str">
         <f>VLOOKUP(C256,'Hospital Pincodes'!A:B,2,)</f>
@@ -6078,7 +6079,7 @@
         <v>560003</v>
       </c>
       <c r="D257" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E257" t="str">
         <f>VLOOKUP(C257,'Hospital Pincodes'!A:B,2,)</f>
@@ -6096,7 +6097,7 @@
         <v>560003</v>
       </c>
       <c r="D258" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E258" t="str">
         <f>VLOOKUP(C258,'Hospital Pincodes'!A:B,2,)</f>
@@ -6114,7 +6115,7 @@
         <v>560003</v>
       </c>
       <c r="D259" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E259" t="str">
         <f>VLOOKUP(C259,'Hospital Pincodes'!A:B,2,)</f>
@@ -6132,7 +6133,7 @@
         <v>560003</v>
       </c>
       <c r="D260" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E260" t="str">
         <f>VLOOKUP(C260,'Hospital Pincodes'!A:B,2,)</f>
@@ -6150,7 +6151,7 @@
         <v>560001</v>
       </c>
       <c r="D261" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E261" t="str">
         <f>VLOOKUP(C261,'Hospital Pincodes'!A:B,2,)</f>
@@ -6168,7 +6169,7 @@
         <v>560001</v>
       </c>
       <c r="D262" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E262" t="str">
         <f>VLOOKUP(C262,'Hospital Pincodes'!A:B,2,)</f>
@@ -6186,7 +6187,7 @@
         <v>560001</v>
       </c>
       <c r="D263" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E263" t="str">
         <f>VLOOKUP(C263,'Hospital Pincodes'!A:B,2,)</f>
@@ -6204,7 +6205,7 @@
         <v>560001</v>
       </c>
       <c r="D264" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E264" t="str">
         <f>VLOOKUP(C264,'Hospital Pincodes'!A:B,2,)</f>
@@ -6222,7 +6223,7 @@
         <v>560041</v>
       </c>
       <c r="D265" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E265" t="str">
         <f>VLOOKUP(C265,'Hospital Pincodes'!A:B,2,)</f>
@@ -6240,7 +6241,7 @@
         <v>560041</v>
       </c>
       <c r="D266" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E266" t="str">
         <f>VLOOKUP(C266,'Hospital Pincodes'!A:B,2,)</f>
@@ -6258,7 +6259,7 @@
         <v>560041</v>
       </c>
       <c r="D267" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E267" t="str">
         <f>VLOOKUP(C267,'Hospital Pincodes'!A:B,2,)</f>
@@ -6276,7 +6277,7 @@
         <v>560001</v>
       </c>
       <c r="D268" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E268" t="str">
         <f>VLOOKUP(C268,'Hospital Pincodes'!A:B,2,)</f>
@@ -6294,7 +6295,7 @@
         <v>560041</v>
       </c>
       <c r="D269" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E269" t="str">
         <f>VLOOKUP(C269,'Hospital Pincodes'!A:B,2,)</f>
@@ -6312,7 +6313,7 @@
         <v>560041</v>
       </c>
       <c r="D270" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E270" t="str">
         <f>VLOOKUP(C270,'Hospital Pincodes'!A:B,2,)</f>
@@ -6330,7 +6331,7 @@
         <v>560041</v>
       </c>
       <c r="D271" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E271" t="str">
         <f>VLOOKUP(C271,'Hospital Pincodes'!A:B,2,)</f>
@@ -6348,7 +6349,7 @@
         <v>560001</v>
       </c>
       <c r="D272" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E272" t="str">
         <f>VLOOKUP(C272,'Hospital Pincodes'!A:B,2,)</f>
@@ -6366,7 +6367,7 @@
         <v>560001</v>
       </c>
       <c r="D273" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E273" t="str">
         <f>VLOOKUP(C273,'Hospital Pincodes'!A:B,2,)</f>
@@ -6384,7 +6385,7 @@
         <v>560001</v>
       </c>
       <c r="D274" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E274" t="str">
         <f>VLOOKUP(C274,'Hospital Pincodes'!A:B,2,)</f>
@@ -6402,7 +6403,7 @@
         <v>560001</v>
       </c>
       <c r="D275" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E275" t="str">
         <f>VLOOKUP(C275,'Hospital Pincodes'!A:B,2,)</f>
@@ -6420,7 +6421,7 @@
         <v>562110</v>
       </c>
       <c r="D276" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E276" t="str">
         <f>VLOOKUP(C276,'Hospital Pincodes'!A:B,2,)</f>
@@ -6438,7 +6439,7 @@
         <v>560001</v>
       </c>
       <c r="D277" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E277" t="str">
         <f>VLOOKUP(C277,'Hospital Pincodes'!A:B,2,)</f>
@@ -6456,7 +6457,7 @@
         <v>560001</v>
       </c>
       <c r="D278" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E278" t="str">
         <f>VLOOKUP(C278,'Hospital Pincodes'!A:B,2,)</f>
@@ -6474,7 +6475,7 @@
         <v>560008</v>
       </c>
       <c r="D279" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E279" t="str">
         <f>VLOOKUP(C279,'Hospital Pincodes'!A:B,2,)</f>
@@ -6492,7 +6493,7 @@
         <v>560008</v>
       </c>
       <c r="D280" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E280" t="str">
         <f>VLOOKUP(C280,'Hospital Pincodes'!A:B,2,)</f>
@@ -6510,7 +6511,7 @@
         <v>560008</v>
       </c>
       <c r="D281" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E281" t="str">
         <f>VLOOKUP(C281,'Hospital Pincodes'!A:B,2,)</f>
@@ -6528,7 +6529,7 @@
         <v>560008</v>
       </c>
       <c r="D282" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E282" t="str">
         <f>VLOOKUP(C282,'Hospital Pincodes'!A:B,2,)</f>
@@ -6546,7 +6547,7 @@
         <v>560008</v>
       </c>
       <c r="D283" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E283" t="str">
         <f>VLOOKUP(C283,'Hospital Pincodes'!A:B,2,)</f>
@@ -6564,7 +6565,7 @@
         <v>560008</v>
       </c>
       <c r="D284" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E284" t="str">
         <f>VLOOKUP(C284,'Hospital Pincodes'!A:B,2,)</f>
@@ -6582,7 +6583,7 @@
         <v>560008</v>
       </c>
       <c r="D285" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E285" t="str">
         <f>VLOOKUP(C285,'Hospital Pincodes'!A:B,2,)</f>
@@ -6600,7 +6601,7 @@
         <v>560041</v>
       </c>
       <c r="D286" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E286" t="str">
         <f>VLOOKUP(C286,'Hospital Pincodes'!A:B,2,)</f>
@@ -6618,7 +6619,7 @@
         <v>560003</v>
       </c>
       <c r="D287" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E287" t="str">
         <f>VLOOKUP(C287,'Hospital Pincodes'!A:B,2,)</f>
@@ -6636,7 +6637,7 @@
         <v>560002</v>
       </c>
       <c r="D288" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E288" t="str">
         <f>VLOOKUP(C288,'Hospital Pincodes'!A:B,2,)</f>
@@ -6654,7 +6655,7 @@
         <v>562123</v>
       </c>
       <c r="D289" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E289" t="str">
         <f>VLOOKUP(C289,'Hospital Pincodes'!A:B,2,)</f>
@@ -6672,7 +6673,7 @@
         <v>560008</v>
       </c>
       <c r="D290" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E290" t="str">
         <f>VLOOKUP(C290,'Hospital Pincodes'!A:B,2,)</f>
@@ -6690,7 +6691,7 @@
         <v>560010</v>
       </c>
       <c r="D291" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E291" t="str">
         <f>VLOOKUP(C291,'Hospital Pincodes'!A:B,2,)</f>
@@ -6708,7 +6709,7 @@
         <v>560010</v>
       </c>
       <c r="D292" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E292" t="str">
         <f>VLOOKUP(C292,'Hospital Pincodes'!A:B,2,)</f>
@@ -6726,7 +6727,7 @@
         <v>560010</v>
       </c>
       <c r="D293" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E293" t="str">
         <f>VLOOKUP(C293,'Hospital Pincodes'!A:B,2,)</f>
@@ -6744,7 +6745,7 @@
         <v>560010</v>
       </c>
       <c r="D294" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E294" t="str">
         <f>VLOOKUP(C294,'Hospital Pincodes'!A:B,2,)</f>
@@ -6762,7 +6763,7 @@
         <v>560010</v>
       </c>
       <c r="D295" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E295" t="str">
         <f>VLOOKUP(C295,'Hospital Pincodes'!A:B,2,)</f>
@@ -6780,7 +6781,7 @@
         <v>561203</v>
       </c>
       <c r="D296" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E296" t="str">
         <f>VLOOKUP(C296,'Hospital Pincodes'!A:B,2,)</f>
@@ -6798,7 +6799,7 @@
         <v>561203</v>
       </c>
       <c r="D297" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E297" t="str">
         <f>VLOOKUP(C297,'Hospital Pincodes'!A:B,2,)</f>
@@ -6816,7 +6817,7 @@
         <v>560011</v>
       </c>
       <c r="D298" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E298" t="str">
         <f>VLOOKUP(C298,'Hospital Pincodes'!A:B,2,)</f>
@@ -6834,7 +6835,7 @@
         <v>560008</v>
       </c>
       <c r="D299" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E299" t="str">
         <f>VLOOKUP(C299,'Hospital Pincodes'!A:B,2,)</f>
@@ -6852,7 +6853,7 @@
         <v>562110</v>
       </c>
       <c r="D300" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E300" t="str">
         <f>VLOOKUP(C300,'Hospital Pincodes'!A:B,2,)</f>
@@ -6870,7 +6871,7 @@
         <v>560034</v>
       </c>
       <c r="D301" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E301" t="str">
         <f>VLOOKUP(C301,'Hospital Pincodes'!A:B,2,)</f>
@@ -6888,7 +6889,7 @@
         <v>560078</v>
       </c>
       <c r="D302" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E302" t="str">
         <f>VLOOKUP(C302,'Hospital Pincodes'!A:B,2,)</f>
@@ -6906,7 +6907,7 @@
         <v>560066</v>
       </c>
       <c r="D303" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E303" t="str">
         <f>VLOOKUP(C303,'Hospital Pincodes'!A:B,2,)</f>
@@ -6924,7 +6925,7 @@
         <v>560020</v>
       </c>
       <c r="D304" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E304" t="str">
         <f>VLOOKUP(C304,'Hospital Pincodes'!A:B,2,)</f>
@@ -6942,7 +6943,7 @@
         <v>562110</v>
       </c>
       <c r="D305" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E305" t="str">
         <f>VLOOKUP(C305,'Hospital Pincodes'!A:B,2,)</f>
@@ -6960,7 +6961,7 @@
         <v>562110</v>
       </c>
       <c r="D306" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E306" t="str">
         <f>VLOOKUP(C306,'Hospital Pincodes'!A:B,2,)</f>
@@ -6978,7 +6979,7 @@
         <v>561203</v>
       </c>
       <c r="D307" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E307" t="str">
         <f>VLOOKUP(C307,'Hospital Pincodes'!A:B,2,)</f>
@@ -6996,7 +6997,7 @@
         <v>561203</v>
       </c>
       <c r="D308" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E308" t="str">
         <f>VLOOKUP(C308,'Hospital Pincodes'!A:B,2,)</f>
@@ -7014,7 +7015,7 @@
         <v>560011</v>
       </c>
       <c r="D309" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E309" t="str">
         <f>VLOOKUP(C309,'Hospital Pincodes'!A:B,2,)</f>
@@ -7032,7 +7033,7 @@
         <v>560030</v>
       </c>
       <c r="D310" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E310" t="str">
         <f>VLOOKUP(C310,'Hospital Pincodes'!A:B,2,)</f>
@@ -7050,7 +7051,7 @@
         <v>560030</v>
       </c>
       <c r="D311" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="E311" t="str">
         <f>VLOOKUP(C311,'Hospital Pincodes'!A:B,2,)</f>
@@ -7068,7 +7069,7 @@
         <v>560078</v>
       </c>
       <c r="D312" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E312" t="str">
         <f>VLOOKUP(C312,'Hospital Pincodes'!A:B,2,)</f>
@@ -7086,7 +7087,7 @@
         <v>560034</v>
       </c>
       <c r="D313" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E313" t="str">
         <f>VLOOKUP(C313,'Hospital Pincodes'!A:B,2,)</f>
@@ -7104,7 +7105,7 @@
         <v>560034</v>
       </c>
       <c r="D314" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E314" t="str">
         <f>VLOOKUP(C314,'Hospital Pincodes'!A:B,2,)</f>
@@ -7122,7 +7123,7 @@
         <v>560066</v>
       </c>
       <c r="D315" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E315" t="str">
         <f>VLOOKUP(C315,'Hospital Pincodes'!A:B,2,)</f>
@@ -7140,7 +7141,7 @@
         <v>560037</v>
       </c>
       <c r="D316" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="E316" t="str">
         <f>VLOOKUP(C316,'Hospital Pincodes'!A:B,2,)</f>
@@ -7176,7 +7177,7 @@
         <v>560011</v>
       </c>
       <c r="D318" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E318" t="str">
         <f>VLOOKUP(C318,'Hospital Pincodes'!A:B,2,)</f>
@@ -7194,7 +7195,7 @@
         <v>560020</v>
       </c>
       <c r="D319" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E319" t="str">
         <f>VLOOKUP(C319,'Hospital Pincodes'!A:B,2,)</f>
@@ -7212,7 +7213,7 @@
         <v>560066</v>
       </c>
       <c r="D320" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E320" t="str">
         <f>VLOOKUP(C320,'Hospital Pincodes'!A:B,2,)</f>
@@ -7230,7 +7231,7 @@
         <v>560066</v>
       </c>
       <c r="D321" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E321" t="str">
         <f>VLOOKUP(C321,'Hospital Pincodes'!A:B,2,)</f>
@@ -7248,7 +7249,7 @@
         <v>560066</v>
       </c>
       <c r="D322" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E322" t="str">
         <f>VLOOKUP(C322,'Hospital Pincodes'!A:B,2,)</f>
@@ -7266,7 +7267,7 @@
         <v>560066</v>
       </c>
       <c r="D323" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E323" t="str">
         <f>VLOOKUP(C323,'Hospital Pincodes'!A:B,2,)</f>
@@ -7284,7 +7285,7 @@
         <v>560078</v>
       </c>
       <c r="D324" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E324" t="str">
         <f>VLOOKUP(C324,'Hospital Pincodes'!A:B,2,)</f>
@@ -7302,7 +7303,7 @@
         <v>560066</v>
       </c>
       <c r="D325" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E325" t="str">
         <f>VLOOKUP(C325,'Hospital Pincodes'!A:B,2,)</f>
@@ -7320,7 +7321,7 @@
         <v>560011</v>
       </c>
       <c r="D326" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E326" t="str">
         <f>VLOOKUP(C326,'Hospital Pincodes'!A:B,2,)</f>
@@ -7338,7 +7339,7 @@
         <v>560020</v>
       </c>
       <c r="D327" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E327" t="str">
         <f>VLOOKUP(C327,'Hospital Pincodes'!A:B,2,)</f>
@@ -7356,7 +7357,7 @@
         <v>560020</v>
       </c>
       <c r="D328" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E328" t="str">
         <f>VLOOKUP(C328,'Hospital Pincodes'!A:B,2,)</f>
@@ -7374,7 +7375,7 @@
         <v>560066</v>
       </c>
       <c r="D329" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E329" t="str">
         <f>VLOOKUP(C329,'Hospital Pincodes'!A:B,2,)</f>
@@ -7392,7 +7393,7 @@
         <v>560011</v>
       </c>
       <c r="D330" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E330" t="str">
         <f>VLOOKUP(C330,'Hospital Pincodes'!A:B,2,)</f>
@@ -7410,7 +7411,7 @@
         <v>560020</v>
       </c>
       <c r="D331" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E331" t="str">
         <f>VLOOKUP(C331,'Hospital Pincodes'!A:B,2,)</f>
@@ -7424,10 +7425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection sqref="A1:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7436,410 +7437,516 @@
     <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>560027</v>
       </c>
-      <c r="B2" t="str">
-        <f>VLOOKUP(A2,'Raw Data'!C:D,2,)</f>
-        <v>Shanthinagar UPHC BLOCK 1 (East)</v>
-      </c>
-      <c r="C2">
-        <v>560027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>560003</v>
       </c>
-      <c r="B3" t="str">
-        <f>VLOOKUP(A3,'Raw Data'!C:D,2,)</f>
-        <v>MANIPAL NORTHSIDE (West)</v>
-      </c>
-      <c r="C3">
-        <v>560003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>560020</v>
       </c>
-      <c r="B4" t="str">
-        <f>VLOOKUP(A4,'Raw Data'!C:D,2,)</f>
-        <v>APOLLO HOSPITAL SHESHADRIPURAM (West)</v>
-      </c>
-      <c r="C4">
-        <v>560020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>560017</v>
       </c>
-      <c r="B5" t="str">
-        <f>VLOOKUP(A5,'Raw Data'!C:D,2,)</f>
-        <v>Manipal Hospital Covaxin (East)</v>
-      </c>
-      <c r="C5">
-        <v>560017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>560066</v>
       </c>
-      <c r="B6" t="str">
-        <f>VLOOKUP(A6,'Raw Data'!C:D,2,)</f>
-        <v>APOLLO MEDICAL CENTER P3 (Mahadevapura)</v>
-      </c>
-      <c r="C6">
-        <v>560066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>560097</v>
       </c>
-      <c r="B7" t="str">
-        <f>VLOOKUP(A7,'Raw Data'!C:D,2,)</f>
-        <v>Sahakarnagar UPHC 1 (Yelahanka)</v>
-      </c>
-      <c r="C7">
-        <v>560097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>560076</v>
       </c>
-      <c r="B8" t="str">
-        <f>VLOOKUP(A8,'Raw Data'!C:D,2,)</f>
-        <v>APOLLO HOSPITAL 1 (Bommanahalli)</v>
-      </c>
-      <c r="C8">
-        <v>560076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>560078</v>
       </c>
-      <c r="B9" t="str">
-        <f>VLOOKUP(A9,'Raw Data'!C:D,2,)</f>
-        <v>Manipal Clinic (South)</v>
-      </c>
-      <c r="C9">
-        <v>560078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>560037</v>
       </c>
-      <c r="B10" t="str">
-        <f>VLOOKUP(A10,'Raw Data'!C:D,2,)</f>
-        <v>Apollo Cradle P3 (Mahadevapura)</v>
-      </c>
-      <c r="C10">
-        <v>560037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>560030</v>
       </c>
-      <c r="B11" t="str">
-        <f>VLOOKUP(A11,'Raw Data'!C:D,2,)</f>
-        <v>APOLLO CRADLE</v>
-      </c>
-      <c r="C11">
-        <v>560030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>560011</v>
       </c>
       <c r="B12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>560011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>560003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>560020</v>
+      </c>
+      <c r="B15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>560037</v>
+      </c>
+      <c r="B16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>560011</v>
+      </c>
+      <c r="B17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>560017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>561204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>561204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>561203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>561203</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>562110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>561203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>560068</v>
+      </c>
+      <c r="B25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>560010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>560060</v>
+      </c>
+      <c r="B27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>560011</v>
+      </c>
+      <c r="B28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>560017</v>
+      </c>
+      <c r="B29" t="s">
         <v>306</v>
       </c>
-      <c r="C12">
-        <v>560011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>561204</v>
-      </c>
-      <c r="B13" t="str">
-        <f>VLOOKUP(A13,'Raw Data'!C:D,2,)</f>
-        <v>Gundumgere Hosahalli PHC</v>
-      </c>
-      <c r="C13">
-        <v>561204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>561203</v>
-      </c>
-      <c r="B14" t="str">
-        <f>VLOOKUP(A14,'Raw Data'!C:D,2,)</f>
-        <v>Doddaballapura TH</v>
-      </c>
-      <c r="C14">
-        <v>561203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>560023</v>
+      </c>
+      <c r="B30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>560001</v>
+      </c>
+      <c r="B31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>560020</v>
+      </c>
+      <c r="B32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>560022</v>
+      </c>
+      <c r="B33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>560078</v>
+      </c>
+      <c r="B34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>560078</v>
+      </c>
+      <c r="B35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>560002</v>
+      </c>
+      <c r="B36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>560018</v>
+      </c>
+      <c r="B37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>560003</v>
+      </c>
+      <c r="B38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>560010</v>
+      </c>
+      <c r="B39" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>562114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>560023</v>
+      </c>
+      <c r="B41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>562157</v>
+      </c>
+      <c r="B42" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>562106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>560036</v>
+      </c>
+      <c r="B44" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>560029</v>
+      </c>
+      <c r="B45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>562110</v>
       </c>
-      <c r="B15" t="str">
-        <f>VLOOKUP(A15,'Raw Data'!C:D,2,)</f>
-        <v>Godlumuddenahalli PHC</v>
-      </c>
-      <c r="C15">
+      <c r="B46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>562111</v>
+      </c>
+      <c r="B47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>560041</v>
+      </c>
+      <c r="B48" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>560001</v>
+      </c>
+      <c r="B49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>560003</v>
+      </c>
+      <c r="B50" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>560008</v>
+      </c>
+      <c r="B51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>560002</v>
+      </c>
+      <c r="B52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>560010</v>
+      </c>
+      <c r="B53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>560008</v>
+      </c>
+      <c r="B54" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>562123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>560007</v>
+      </c>
+      <c r="B56" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>560066</v>
+      </c>
+      <c r="B57" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>562123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>560002</v>
+      </c>
+      <c r="B59" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>562110</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>560068</v>
-      </c>
-      <c r="B16" t="str">
-        <f>VLOOKUP(A16,'Raw Data'!C:D,2,)</f>
-        <v>KAVYA HOSPITAL</v>
-      </c>
-      <c r="C16">
-        <v>560068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>560010</v>
-      </c>
-      <c r="B17" t="str">
-        <f>VLOOKUP(A17,'Raw Data'!C:D,2,)</f>
-        <v>Rajajinagar UPHC</v>
-      </c>
-      <c r="C17">
-        <v>560010</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>560060</v>
-      </c>
-      <c r="B18" t="str">
-        <f>VLOOKUP(A18,'Raw Data'!C:D,2,)</f>
-        <v>BGS GLENEAGLES GLOBAL HOSPITAL</v>
-      </c>
-      <c r="C18">
-        <v>560060</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>560023</v>
-      </c>
-      <c r="B19" t="str">
-        <f>VLOOKUP(A19,'Raw Data'!C:D,2,)</f>
-        <v>LEPROSY HOSPITAL 02</v>
-      </c>
-      <c r="C19">
-        <v>560023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>560001</v>
-      </c>
-      <c r="B20" t="str">
-        <f>VLOOKUP(A20,'Raw Data'!C:D,2,)</f>
-        <v>Bowring Hospital Covi-s Vip-2</v>
-      </c>
-      <c r="C20">
-        <v>560001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>560022</v>
-      </c>
-      <c r="B21" t="str">
-        <f>VLOOKUP(A21,'Raw Data'!C:D,2,)</f>
-        <v>SUBEDARAPALYA UPHC</v>
-      </c>
-      <c r="C21">
-        <v>560022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>560002</v>
-      </c>
-      <c r="B22" t="str">
-        <f>VLOOKUP(A22,'Raw Data'!C:D,2,)</f>
-        <v>VICTORIA</v>
-      </c>
-      <c r="C22">
-        <v>560002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>560018</v>
-      </c>
-      <c r="B23" t="str">
-        <f>VLOOKUP(A23,'Raw Data'!C:D,2,)</f>
-        <v>Vanivillas Hospital 1</v>
-      </c>
-      <c r="C23">
-        <v>560018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>562114</v>
-      </c>
-      <c r="B24" t="str">
-        <f>VLOOKUP(A24,'Raw Data'!C:D,2,)</f>
-        <v>Boys Hihg School Hosakote TH</v>
-      </c>
-      <c r="C24">
-        <v>562114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>562157</v>
-      </c>
-      <c r="B25" t="str">
-        <f>VLOOKUP(A25,'Raw Data'!C:D,2,)</f>
-        <v>Yelahanka TH.</v>
-      </c>
-      <c r="C25">
-        <v>562157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>562106</v>
-      </c>
-      <c r="B26" t="str">
-        <f>VLOOKUP(A26,'Raw Data'!C:D,2,)</f>
-        <v>Anekal TH</v>
-      </c>
-      <c r="C26">
-        <v>562106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>560036</v>
-      </c>
-      <c r="B27" t="str">
-        <f>VLOOKUP(A27,'Raw Data'!C:D,2,)</f>
-        <v>General Hospital K R Puram</v>
-      </c>
-      <c r="C27">
-        <v>560036</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>560029</v>
-      </c>
-      <c r="B28" t="str">
-        <f>VLOOKUP(A28,'Raw Data'!C:D,2,)</f>
-        <v>NIMHANS Hospitals</v>
-      </c>
-      <c r="C28">
-        <v>560029</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>562111</v>
-      </c>
-      <c r="B29" t="str">
-        <f>VLOOKUP(A29,'Raw Data'!C:D,2,)</f>
-        <v>18 To 44 TH Nelamangala</v>
-      </c>
-      <c r="C29">
-        <v>562111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>560041</v>
-      </c>
-      <c r="B30" t="str">
-        <f>VLOOKUP(A30,'Raw Data'!C:D,2,)</f>
-        <v>Jayanagar General Hospital 18</v>
-      </c>
-      <c r="C30">
-        <v>560041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>560008</v>
-      </c>
-      <c r="B31" t="str">
-        <f>VLOOKUP(A31,'Raw Data'!C:D,2,)</f>
-        <v>C V Raman GH 18</v>
-      </c>
-      <c r="C31">
-        <v>560008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>562123</v>
-      </c>
-      <c r="B32" t="str">
-        <f>VLOOKUP(A32,'Raw Data'!C:D,2,)</f>
-        <v>Nelamangala TH Covishield</v>
-      </c>
-      <c r="C32">
-        <v>562123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>560007</v>
-      </c>
-      <c r="B33" t="str">
-        <f>VLOOKUP(A33,'Raw Data'!C:D,2,)</f>
-        <v>COMMAND HOSPITAL AIR FORCE</v>
-      </c>
-      <c r="C33">
-        <v>560007</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B60" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>560034</v>
       </c>
-      <c r="B34" t="str">
-        <f>VLOOKUP(A34,'Raw Data'!C:D,2,)</f>
-        <v>APOLLO SPECTRA HOSPITAL-1</v>
-      </c>
-      <c r="C34">
-        <v>560034</v>
+      <c r="B61" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>560030</v>
+      </c>
+      <c r="B62" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>560037</v>
+      </c>
+      <c r="B63" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>560066</v>
+      </c>
+      <c r="B64" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
